--- a/Proyecto/GeoP_PP_MatrizTrazabilidad-v0.1.xlsx
+++ b/Proyecto/GeoP_PP_MatrizTrazabilidad-v0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,51 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Requerimiento</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>Registrar playa estacionamiento</t>
+  </si>
+  <si>
+    <t>Historia de Usuario</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,19 +82,272 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847726</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>523876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486276" y="1238251"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>552451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991226" y="1266826"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>523876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886576" y="1238251"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>485776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791451" y="1200151"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G16" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:G16"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Requerimiento" dataDxfId="8"/>
+    <tableColumn id="9" name="Historia de Usuario" dataDxfId="0"/>
+    <tableColumn id="3" name="Requerimientos" dataDxfId="7"/>
+    <tableColumn id="5" name="Diseño" dataDxfId="6"/>
+    <tableColumn id="6" name="Implementación" dataDxfId="5"/>
+    <tableColumn id="7" name="Prueba" dataDxfId="4"/>
+    <tableColumn id="8" name="Despliegue" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,36 +632,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
